--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>Размеры изображения</t>
   </si>
@@ -426,7 +426,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,7 +734,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="2">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2">
         <v>3</v>
@@ -751,33 +751,67 @@
       <c r="H12" s="2">
         <v>12</v>
       </c>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3">
+        <v>0.53700000000000003</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="3"/>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2">
+        <v>9</v>
+      </c>
+      <c r="D13" s="2">
+        <v>9</v>
+      </c>
+      <c r="E13" s="2">
+        <v>900</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>12</v>
+      </c>
+      <c r="H13" s="2">
+        <v>12</v>
+      </c>
+      <c r="I13" s="3">
+        <v>0.48149999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="3"/>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>2</v>
+      </c>
+      <c r="E14" s="2">
+        <v>100</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45</v>
+      </c>
+      <c r="G14" s="2">
+        <v>12</v>
+      </c>
+      <c r="H14" s="2">
+        <v>12</v>
+      </c>
+      <c r="I14" s="3">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>Размеры изображения</t>
   </si>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>512x512</t>
+  </si>
+  <si>
+    <t>55.56%</t>
+  </si>
+  <si>
+    <t>После ресайза</t>
   </si>
 </sst>
 </file>
@@ -426,7 +432,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,15 +820,33 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="3"/>
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="2">
+        <v>5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2">
+        <v>450</v>
+      </c>
+      <c r="F15" s="2">
+        <v>20</v>
+      </c>
+      <c r="G15" s="2">
+        <v>12</v>
+      </c>
+      <c r="H15" s="2">
+        <v>12</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
   <si>
     <t>Размеры изображения</t>
   </si>
@@ -51,18 +51,6 @@
     <t>Результат</t>
   </si>
   <si>
-    <t>Cov2D</t>
-  </si>
-  <si>
-    <t>MaxPool</t>
-  </si>
-  <si>
-    <t>3x3</t>
-  </si>
-  <si>
-    <t>2x2</t>
-  </si>
-  <si>
     <t>256x256</t>
   </si>
   <si>
@@ -73,6 +61,42 @@
   </si>
   <si>
     <t>После ресайза</t>
+  </si>
+  <si>
+    <t>Univ 3</t>
+  </si>
+  <si>
+    <t>Univ 6</t>
+  </si>
+  <si>
+    <t>Univ 7</t>
+  </si>
+  <si>
+    <t>Univ 8</t>
+  </si>
+  <si>
+    <t>Univ 8_2</t>
+  </si>
+  <si>
+    <t>Univ 9</t>
+  </si>
+  <si>
+    <t>500 (480???)</t>
+  </si>
+  <si>
+    <t>Архи</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2(32) 1(64) 1(128)</t>
+  </si>
+  <si>
+    <t>2(64) 2(32) 2(64)</t>
+  </si>
+  <si>
+    <t>2(128) 2(64) 2(128)</t>
+  </si>
+  <si>
+    <t>Сами изображения 1600x1600, ниже указаны размеры в программе</t>
   </si>
 </sst>
 </file>
@@ -135,7 +159,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -148,6 +172,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,15 +456,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.140625" style="4" bestFit="1" customWidth="1"/>
@@ -446,10 +473,11 @@
     <col min="7" max="7" width="14.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.140625" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="4"/>
+    <col min="10" max="10" width="31.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -478,13 +506,10 @@
         <v>9</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <f>1</f>
         <v>1</v>
@@ -513,14 +538,8 @@
       <c r="I2" s="3">
         <v>0.46300000000000002</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -536,7 +555,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -552,7 +571,7 @@
         <v>0.51849999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -582,7 +601,7 @@
         <v>0.4259</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -612,7 +631,7 @@
         <v>0.37040000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -642,13 +661,13 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2">
         <v>3</v>
@@ -672,13 +691,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C9" s="2">
         <v>3</v>
@@ -702,13 +721,13 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C10" s="2">
         <v>5</v>
@@ -732,12 +751,23 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C12" s="2">
         <v>5</v>
@@ -761,12 +791,12 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>9</v>
@@ -790,12 +820,12 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C14" s="2">
         <v>5</v>
@@ -819,12 +849,12 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2">
         <v>5</v>
@@ -845,12 +875,14 @@
         <v>12</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -859,49 +891,216 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="3"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="3"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="3"/>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" s="2">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="2">
+        <v>18</v>
+      </c>
+      <c r="G17" s="2">
+        <v>12</v>
+      </c>
+      <c r="H17" s="2">
+        <v>12</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>4</v>
+      </c>
+      <c r="E18" s="2">
+        <v>240</v>
+      </c>
+      <c r="F18" s="2">
+        <v>36</v>
+      </c>
+      <c r="G18" s="2">
+        <v>12</v>
+      </c>
+      <c r="H18" s="2">
+        <v>12</v>
+      </c>
+      <c r="I18" s="3">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>4</v>
+      </c>
+      <c r="E19" s="2">
+        <v>240</v>
+      </c>
+      <c r="F19" s="2">
+        <v>36</v>
+      </c>
+      <c r="G19" s="2">
+        <v>12</v>
+      </c>
+      <c r="H19" s="2">
+        <v>12</v>
+      </c>
+      <c r="I19" s="3">
+        <v>0.8982</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>4</v>
+      </c>
+      <c r="E20" s="2">
+        <v>240</v>
+      </c>
+      <c r="F20" s="2">
+        <v>36</v>
+      </c>
+      <c r="G20" s="2">
+        <v>12</v>
+      </c>
+      <c r="H20" s="2">
+        <v>12</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0.78569999999999995</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <v>240</v>
+      </c>
+      <c r="F21" s="2">
+        <v>36</v>
+      </c>
+      <c r="G21" s="2">
+        <v>12</v>
+      </c>
+      <c r="H21" s="2">
+        <v>12</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>16</v>
+      </c>
+      <c r="E22" s="2">
+        <v>960</v>
+      </c>
+      <c r="F22" s="2">
+        <v>9</v>
+      </c>
+      <c r="G22" s="2">
+        <v>12</v>
+      </c>
+      <c r="H22" s="2">
+        <v>12</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0.83</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
   <si>
     <t>Размеры изображения</t>
   </si>
@@ -97,13 +97,16 @@
   </si>
   <si>
     <t>Сами изображения 1600x1600, ниже указаны размеры в программе</t>
+  </si>
+  <si>
+    <t>256х2 128х2 256х3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -112,7 +115,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +131,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,7 +168,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -175,6 +184,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -236,7 +251,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -271,7 +286,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -448,21 +463,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.42578125" style="4" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="4" bestFit="1" customWidth="1"/>
@@ -477,7 +492,7 @@
     <col min="11" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -509,7 +524,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <f>1</f>
         <v>1</v>
@@ -539,7 +554,7 @@
         <v>0.46300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <f>A2+1</f>
         <v>2</v>
@@ -555,7 +570,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A10" si="0">A3+1</f>
         <v>3</v>
@@ -571,7 +586,7 @@
         <v>0.51849999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -601,7 +616,7 @@
         <v>0.4259</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -631,7 +646,7 @@
         <v>0.37040000000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -661,7 +676,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -691,7 +706,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -721,7 +736,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -751,7 +766,7 @@
         <v>0.57399999999999995</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -762,7 +777,7 @@
       <c r="H11" s="2"/>
       <c r="I11" s="3"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -791,7 +806,7 @@
         <v>0.53700000000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -820,7 +835,7 @@
         <v>0.48149999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -849,7 +864,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" ht="30">
       <c r="A15" s="5" t="s">
         <v>13</v>
       </c>
@@ -878,7 +893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="60">
       <c r="A16" s="2"/>
       <c r="B16" s="5" t="s">
         <v>25</v>
@@ -891,36 +906,39 @@
       <c r="H16" s="2"/>
       <c r="I16" s="3"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:10">
+      <c r="A17" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="2">
+      <c r="B17" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="6">
         <v>3</v>
       </c>
-      <c r="D17" s="2">
+      <c r="D17" s="6">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="6">
         <v>18</v>
       </c>
-      <c r="G17" s="2">
-        <v>12</v>
-      </c>
-      <c r="H17" s="2">
-        <v>12</v>
-      </c>
-      <c r="I17" s="3">
+      <c r="G17" s="6">
+        <v>12</v>
+      </c>
+      <c r="H17" s="6">
+        <v>12</v>
+      </c>
+      <c r="I17" s="7">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J17" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -952,7 +970,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
         <v>16</v>
       </c>
@@ -984,7 +1002,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1034,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
         <v>19</v>
       </c>
@@ -1080,7 +1098,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1091,7 +1109,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="3"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1104,5 +1122,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>